--- a/src/test/resources/vacancycreation.xlsx
+++ b/src/test/resources/vacancycreation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navee\IdeaProjects\Apollo-ta\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB0C213-C7D1-49F8-8EA0-D7BD72DB9859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF78023-DEB6-46FF-8518-2DAF3856C5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vacancy" sheetId="1" r:id="rId1"/>
+    <sheet name="edit" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Site Input</t>
   </si>
@@ -61,19 +62,37 @@
   </si>
   <si>
     <t>November</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> apollo medico</t>
+  </si>
+  <si>
+    <t>No Of Vacancies</t>
+  </si>
+  <si>
+    <t>No Of Closed Vacancies</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,11 +115,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,13 +403,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
@@ -472,8 +492,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>100010</v>
+      <c r="A4" t="s">
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -494,4 +514,58 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD37213F-A940-474B-B7B4-183122C03155}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100011</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>100010</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/vacancycreation.xlsx
+++ b/src/test/resources/vacancycreation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navee\IdeaProjects\Apollo-ta\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium-intellij\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF78023-DEB6-46FF-8518-2DAF3856C5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="vacancy" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Site Input</t>
   </si>
@@ -49,37 +48,34 @@
     <t>NoOfvacancies</t>
   </si>
   <si>
-    <t>NoOfClosedvacancies</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>100011 - Apollo 5</t>
-  </si>
-  <si>
-    <t>100010 - apollo medico</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apollo medico</t>
-  </si>
-  <si>
     <t>No Of Vacancies</t>
   </si>
   <si>
-    <t>No Of Closed Vacancies</t>
-  </si>
-  <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> apollo medical services</t>
+  </si>
+  <si>
+    <t>10012 - apollo medical services</t>
+  </si>
+  <si>
+    <t>100010 - apollo</t>
+  </si>
+  <si>
+    <t>100011 - apollo</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>January</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,12 +111,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,8 +402,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -410,7 +412,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" customWidth="1"/>
@@ -422,7 +424,7 @@
     <col min="11" max="11" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,22 +443,19 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100011</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>2025</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -464,22 +463,19 @@
       <c r="F2">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100010</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>2025</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -487,28 +483,22 @@
       <c r="F3">
         <v>15</v>
       </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4">
         <v>2025</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>10</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -517,11 +507,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD37213F-A940-474B-B7B4-183122C03155}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,36 +521,27 @@
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100011</v>
       </c>
       <c r="B2">
         <v>22</v>
       </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>100010</v>
       </c>
       <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3">
         <v>50</v>
       </c>
     </row>
